--- a/Formato Casos de Prueba.xlsx
+++ b/Formato Casos de Prueba.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10204"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikesavage/Dropbox/Sena CSF/CSF/Cursos CSF/Testing/Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\DOCUMENTOS MI SENA\Quinto trimestre\Testing\trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19800" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Prueba" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,23 +443,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -495,23 +478,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,52 +653,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6368B1-11A6-4346-975D-417AC3A71FC9}">
-  <dimension ref="A2:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" customWidth="1"/>
+    <col min="7" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -744,13 +711,13 @@
       <c r="K6" s="20"/>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I7" s="22"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
@@ -788,7 +755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -804,11 +771,75 @@
       <c r="K9" s="9"/>
       <c r="L9" s="13"/>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I6:L7"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>